--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs1-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs1-Tnfrsf11b.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H2">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I2">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J2">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N2">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O2">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P2">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q2">
-        <v>1.151451233563889</v>
+        <v>7.851870550788777</v>
       </c>
       <c r="R2">
-        <v>10.363061102075</v>
+        <v>70.66683495709898</v>
       </c>
       <c r="S2">
-        <v>0.0001374878035816041</v>
+        <v>0.0005090843033863961</v>
       </c>
       <c r="T2">
-        <v>0.0001374878035816041</v>
+        <v>0.0005090843033863961</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H3">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I3">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J3">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>20.79327</v>
       </c>
       <c r="O3">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P3">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q3">
-        <v>105.2761850778367</v>
+        <v>240.5715747784967</v>
       </c>
       <c r="R3">
-        <v>947.4856657005299</v>
+        <v>2165.14417300647</v>
       </c>
       <c r="S3">
-        <v>0.01257039033342535</v>
+        <v>0.01559771162406341</v>
       </c>
       <c r="T3">
-        <v>0.01257039033342535</v>
+        <v>0.01559771162406341</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H4">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I4">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J4">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N4">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O4">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P4">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q4">
-        <v>4.710219043477444</v>
+        <v>1.224350298407111</v>
       </c>
       <c r="R4">
-        <v>42.391971391297</v>
+        <v>11.019152685664</v>
       </c>
       <c r="S4">
-        <v>0.0005624186694138669</v>
+        <v>7.938204211770859E-05</v>
       </c>
       <c r="T4">
-        <v>0.0005624186694138668</v>
+        <v>7.938204211770861E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,40 +735,40 @@
         <v>286.50943</v>
       </c>
       <c r="I5">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J5">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N5">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O5">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P5">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q5">
-        <v>7.239934124194444</v>
+        <v>21.60468925048555</v>
       </c>
       <c r="R5">
-        <v>65.15940711774999</v>
+        <v>194.44220325437</v>
       </c>
       <c r="S5">
-        <v>0.0008644765942280508</v>
+        <v>0.001400762799872969</v>
       </c>
       <c r="T5">
-        <v>0.0008644765942280509</v>
+        <v>0.001400762799872969</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>286.50943</v>
       </c>
       <c r="I6">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J6">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -815,10 +815,10 @@
         <v>20.79327</v>
       </c>
       <c r="O6">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P6">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q6">
         <v>661.9408817262334</v>
@@ -827,10 +827,10 @@
         <v>5957.4679355361</v>
       </c>
       <c r="S6">
-        <v>0.07903834333280996</v>
+        <v>0.04291763478229069</v>
       </c>
       <c r="T6">
-        <v>0.07903834333280996</v>
+        <v>0.04291763478229069</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>286.50943</v>
       </c>
       <c r="I7">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J7">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N7">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O7">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P7">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q7">
-        <v>29.61625693843223</v>
+        <v>3.368841546702223</v>
       </c>
       <c r="R7">
-        <v>266.54631244589</v>
+        <v>30.31957392032</v>
       </c>
       <c r="S7">
-        <v>0.003536297498392978</v>
+        <v>0.0002184223925915034</v>
       </c>
       <c r="T7">
-        <v>0.003536297498392978</v>
+        <v>0.0002184223925915034</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H8">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I8">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J8">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N8">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O8">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P8">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q8">
-        <v>30.48187215999444</v>
+        <v>232.5837148261062</v>
       </c>
       <c r="R8">
-        <v>274.33684943995</v>
+        <v>2093.253433434956</v>
       </c>
       <c r="S8">
-        <v>0.003639655358535293</v>
+        <v>0.0150798103044852</v>
       </c>
       <c r="T8">
-        <v>0.003639655358535293</v>
+        <v>0.0150798103044852</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H9">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I9">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J9">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>20.79327</v>
       </c>
       <c r="O9">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P9">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q9">
-        <v>2786.931067069353</v>
+        <v>7126.076542095852</v>
       </c>
       <c r="R9">
-        <v>25082.37960362418</v>
+        <v>64134.68887886267</v>
       </c>
       <c r="S9">
-        <v>0.3327705246871328</v>
+        <v>0.4620266838131417</v>
       </c>
       <c r="T9">
-        <v>0.3327705246871327</v>
+        <v>0.4620266838131419</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H10">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I10">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J10">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N10">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O10">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P10">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q10">
-        <v>124.6915983445202</v>
+        <v>36.26701928031289</v>
       </c>
       <c r="R10">
-        <v>1122.224385100682</v>
+        <v>326.403173522816</v>
       </c>
       <c r="S10">
-        <v>0.01488866699843302</v>
+        <v>0.002351410422114555</v>
       </c>
       <c r="T10">
-        <v>0.01488866699843302</v>
+        <v>0.002351410422114556</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H11">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I11">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J11">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N11">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O11">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P11">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q11">
-        <v>2.815896877597222</v>
+        <v>10.82237464237533</v>
       </c>
       <c r="R11">
-        <v>25.343071898375</v>
+        <v>97.40137178137799</v>
       </c>
       <c r="S11">
-        <v>0.0003362291563272339</v>
+        <v>0.0007016800672098159</v>
       </c>
       <c r="T11">
-        <v>0.0003362291563272339</v>
+        <v>0.0007016800672098159</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H12">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I12">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J12">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1187,22 +1187,22 @@
         <v>20.79327</v>
       </c>
       <c r="O12">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P12">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q12">
-        <v>257.4550030473167</v>
+        <v>331.58413574426</v>
       </c>
       <c r="R12">
-        <v>2317.09502742585</v>
+        <v>2984.25722169834</v>
       </c>
       <c r="S12">
-        <v>0.03074113940588934</v>
+        <v>0.02149860694562638</v>
       </c>
       <c r="T12">
-        <v>0.03074113940588934</v>
+        <v>0.02149860694562638</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H13">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I13">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J13">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N13">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O13">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P13">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q13">
-        <v>11.51893428979611</v>
+        <v>1.687544074645333</v>
       </c>
       <c r="R13">
-        <v>103.670408608165</v>
+        <v>15.187896671808</v>
       </c>
       <c r="S13">
-        <v>0.001375406034524882</v>
+        <v>0.0001094136988272631</v>
       </c>
       <c r="T13">
-        <v>0.001375406034524882</v>
+        <v>0.0001094136988272632</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H14">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I14">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J14">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N14">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O14">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P14">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q14">
-        <v>30.50861511628333</v>
+        <v>96.87500996890898</v>
       </c>
       <c r="R14">
-        <v>274.57753604655</v>
+        <v>871.8750897201809</v>
       </c>
       <c r="S14">
-        <v>0.003642848572641337</v>
+        <v>0.006280993381967805</v>
       </c>
       <c r="T14">
-        <v>0.003642848572641337</v>
+        <v>0.006280993381967805</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H15">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I15">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J15">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>20.79327</v>
       </c>
       <c r="O15">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P15">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q15">
-        <v>2789.37615230938</v>
+        <v>2968.13014862577</v>
       </c>
       <c r="R15">
-        <v>25104.38537078442</v>
+        <v>26713.17133763193</v>
       </c>
       <c r="S15">
-        <v>0.333062477476293</v>
+        <v>0.1924418467293143</v>
       </c>
       <c r="T15">
-        <v>0.333062477476293</v>
+        <v>0.1924418467293143</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H16">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I16">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J16">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N16">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O16">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P16">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q16">
-        <v>124.8009952328287</v>
+        <v>15.105820529824</v>
       </c>
       <c r="R16">
-        <v>1123.208957095458</v>
+        <v>135.952384768416</v>
       </c>
       <c r="S16">
-        <v>0.01490172941693045</v>
+        <v>0.0009794017962678769</v>
       </c>
       <c r="T16">
-        <v>0.01490172941693045</v>
+        <v>0.0009794017962678771</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H17">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I17">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J17">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N17">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O17">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P17">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q17">
-        <v>14.57129453874722</v>
+        <v>115.3595987768773</v>
       </c>
       <c r="R17">
-        <v>131.141650848725</v>
+        <v>1038.236388991896</v>
       </c>
       <c r="S17">
-        <v>0.001739869846916812</v>
+        <v>0.007479461180923457</v>
       </c>
       <c r="T17">
-        <v>0.001739869846916812</v>
+        <v>0.007479461180923458</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H18">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I18">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J18">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>20.79327</v>
       </c>
       <c r="O18">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P18">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q18">
-        <v>1332.240789683177</v>
+        <v>3534.475022742321</v>
       </c>
       <c r="R18">
-        <v>11990.16710714859</v>
+        <v>31810.27520468088</v>
       </c>
       <c r="S18">
-        <v>0.159074787256458</v>
+        <v>0.2291614135957238</v>
       </c>
       <c r="T18">
-        <v>0.1590747872564579</v>
+        <v>0.2291614135957238</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H19">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I19">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J19">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N19">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O19">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P19">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q19">
-        <v>59.60650961491011</v>
+        <v>17.98814158651734</v>
       </c>
       <c r="R19">
-        <v>536.4585865341909</v>
+        <v>161.893274278656</v>
       </c>
       <c r="S19">
-        <v>0.007117251558066131</v>
+        <v>0.001166280120075095</v>
       </c>
       <c r="T19">
-        <v>0.00711725155806613</v>
+        <v>0.001166280120075095</v>
       </c>
     </row>
   </sheetData>
